--- a/biology/Zoologie/Dryopsophus_pearsonianus/Dryopsophus_pearsonianus.xlsx
+++ b/biology/Zoologie/Dryopsophus_pearsonianus/Dryopsophus_pearsonianus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dryopsophus pearsonianus est une espèce d'amphibiens de la famille des Pelodryadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dryopsophus pearsonianus est une espèce d'amphibiens de la famille des Pelodryadidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'Est de l'Australie. Elle se rencontre entre 200 et 1 000 m d'altitude de Kadanga du Sud-Est du Queensland au parc national de Gibraltar Range au Nord-Est de la Nouvelle-Galles du Sud[1],[2].
-La population isolée dans le parc national de Kroombit Tops au centre du Queensland a été décrite comme espèce séparée Dryopsophus kroombitensis[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'Est de l'Australie. Elle se rencontre entre 200 et 1 000 m d'altitude de Kadanga du Sud-Est du Queensland au parc national de Gibraltar Range au Nord-Est de la Nouvelle-Galles du Sud,.
+La population isolée dans le parc national de Kroombit Tops au centre du Queensland a été décrite comme espèce séparée Dryopsophus kroombitensis.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 24 à 29 mm et les femelles de 30 à 37 mm[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 24 à 29 mm et les femelles de 30 à 37 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de John C. Pearson, qui a collecté l'holotype[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de John C. Pearson, qui a collecté l'holotype.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Copland, 1960 : A new tree-frog (genus Hyla) from Queensland. Proceedings of the Linnean Society of New South Wales, vol. 85, p. 154-156 (texte intégral).
 Copland, 1961 : A new name for Hyla pearsoni, preoccupied (Amphibia). Proceedings of the Linnean Society of New South Wales, vol. 86, p. 168 (texte intégral).</t>
